--- a/cms-server/resource/excel/ExcelExport.xlsx
+++ b/cms-server/resource/excel/ExcelExport.xlsx
@@ -37,18 +37,12 @@
     <t>文件名称</t>
   </si>
   <si>
-    <t>https://www.88act.com</t>
+    <t>cms</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>cms</t>
-  </si>
-  <si>
     <t>view/cms/index.vue</t>
   </si>
   <si>
@@ -56,6 +50,12 @@
   </si>
   <si>
     <t>view/basic/index.vue</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>view/col/index.vue</t>
   </si>
   <si>
     <t>dashboard</t>
@@ -435,7 +435,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
